--- a/投资记录和模拟投资.xlsx
+++ b/投资记录和模拟投资.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36680D-5C83-4358-B76C-CEBB68734361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBBF05-1B67-4993-985B-8222964877F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId1"/>
-    <sheet name="模拟投资行为记录-" sheetId="2" r:id="rId2"/>
+    <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
+    <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,11 +56,181 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按照投资原则进行投资，投资原则为：</t>
+    <t>购买时股价（元）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>购买时股价（元）</t>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买原则为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1，按照定投的思想，一年操作4次，使用20% 50% 20%原则分批定投
+2，绝不再股票很火和上涨中追涨
+3，耐心观察到观察股票处于大跌和下跌后短期横盘购买
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卖出原则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1，当股票利润达到10%时候，卖出50%
+2，当股票有利好信息出来，且处于高位时，卖出剩余的。这块很难把握，视具体情况而定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照股票投资原则进行投资</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择股票的原则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>企业准则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1，是否持续稳定的经营历史
+2，是否有比较好的盈利前景
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财务准则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1，是否有连续的分红
+2，是否在主营业务上有持续的盈利能力
+3，观察市盈率，净利润率，和净利润现金流，留存率，避免误区
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市场准则：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1，确定公司的估值，然后评估公司的市场价值
+2，是否被价值低估
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国内公司无法判断其团队能力，很多都是被包装的</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -71,9 +241,9 @@
   <numFmts count="3">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +273,32 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -118,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -141,17 +337,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -160,9 +446,43 @@
     <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,78 +762,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29426C8E-29A1-4EAC-8A6E-57158783F829}">
+  <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K3" sqref="K3:R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="K3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:I18"/>
+    <mergeCell ref="K3:R18"/>
+    <mergeCell ref="C1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="11" customWidth="1"/>
-    <col min="6" max="10" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="3" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>43468</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>5.64</v>
       </c>
       <c r="D4" s="1">
         <v>1800</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>C4*D4</f>
         <v>10152</v>
       </c>
@@ -521,140 +1166,124 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29426C8E-29A1-4EAC-8A6E-57158783F829}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/投资记录和模拟投资.xlsx
+++ b/投资记录和模拟投资.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACBBF05-1B67-4993-985B-8222964877F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020A01B-02BF-4E53-A2A1-C2921CB84C02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
     <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId2"/>
+    <sheet name="数字货币投资" sheetId="3" r:id="rId3"/>
+    <sheet name="数字货币投资原则" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -19,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -233,15 +236,70 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>交易平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 火币网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买时人民币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前持仓比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特现金持仓80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞波币持仓20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损50%时割肉抛掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作原则，总体原则，长期持有，适时离开
+若新闻开始出现报道时：全部抛掉
+涨至5倍时抛掉80%，抛掉的80%半年内不能再进行购买
+20%看具体情况长期持有或适时抛掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0.000000_);[Red]\(\$#,##0.000000\)"/>
+    <numFmt numFmtId="179" formatCode="\$#,##0.00000_);[Red]\(\$#,##0.00000\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0.00000_);[Red]\(&quot;¥&quot;#,##0.00000\)"/>
+    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -314,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -430,11 +488,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,6 +588,13 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -462,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,6 +627,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,311 +954,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="K3" s="24" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1096,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,4 +1465,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D7A42-A75E-4DC7-BA35-84D0E3FE7A81}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="35" customWidth="1"/>
+    <col min="5" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>43507</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D3" s="34">
+        <f>C3*6.67</f>
+        <v>2.0343499999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>48.86</v>
+      </c>
+      <c r="F3" s="17">
+        <v>14.7</v>
+      </c>
+      <c r="G3" s="20">
+        <f>F3 * 6.76</f>
+        <v>99.371999999999986</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>43509</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="D4" s="34">
+        <f>C4*6.67</f>
+        <v>2.0350169999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>259.08999999999997</v>
+      </c>
+      <c r="F4" s="17">
+        <f>C4*E4</f>
+        <v>79.048358999999991</v>
+      </c>
+      <c r="G4" s="20">
+        <f>F4 * 6.76</f>
+        <v>534.36690683999996</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="21">
+        <f>SUM(G5,G6)</f>
+        <v>14862.400799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43509</v>
+      </c>
+      <c r="C5" s="15">
+        <v>122.46</v>
+      </c>
+      <c r="D5" s="34">
+        <f>C5*6.67</f>
+        <v>816.80819999999994</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17">
+        <f>C5*E5</f>
+        <v>367.38</v>
+      </c>
+      <c r="G5" s="20">
+        <f>F5 * 6.76</f>
+        <v>2483.4888000000001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="21">
+        <f>SUM(G3,G4,G7)</f>
+        <v>4925.3614108399997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>43516</v>
+      </c>
+      <c r="C6" s="15">
+        <v>140</v>
+      </c>
+      <c r="D6" s="34">
+        <f>C6*6.67</f>
+        <v>933.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13.08</v>
+      </c>
+      <c r="F6" s="17">
+        <f>C6*E6</f>
+        <v>1831.2</v>
+      </c>
+      <c r="G6" s="20">
+        <f>F6 * 6.76</f>
+        <v>12378.912</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43516</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="D7" s="34">
+        <f>C7*6.67</f>
+        <v>2.1704180000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1951</v>
+      </c>
+      <c r="F7" s="17">
+        <f>C7*E7</f>
+        <v>634.85540000000003</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" ref="G7:G23" si="0">F7 * 6.76</f>
+        <v>4291.6225039999999</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="16"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="16"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="16"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="16"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8E5CED-AB8E-4E95-8007-B7EC44227339}">
+  <dimension ref="B1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="36">
+        <v>43516</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="41"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="42"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:H20"/>
+    <mergeCell ref="B22:H23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/投资记录和模拟投资.xlsx
+++ b/投资记录和模拟投资.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020A01B-02BF-4E53-A2A1-C2921CB84C02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7996B-615B-4214-9A72-9BCCCC8955B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,6 +595,13 @@
     <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -628,13 +635,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -954,311 +954,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="K3" s="31" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1472,13 +1472,13 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="24" customWidth="1"/>
     <col min="5" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="21" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
@@ -1496,7 +1496,7 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1525,7 +1525,7 @@
       <c r="C3" s="15">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="23">
         <f>C3*6.67</f>
         <v>2.0343499999999999</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="C4" s="15">
         <v>0.30509999999999998</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="23">
         <f>C4*6.67</f>
         <v>2.0350169999999999</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="C5" s="15">
         <v>122.46</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="23">
         <f>C5*6.67</f>
         <v>816.80819999999994</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C6" s="15">
         <v>140</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="23">
         <f>C6*6.67</f>
         <v>933.8</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="C7" s="15">
         <v>0.32540000000000002</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="23">
         <f>C7*6.67</f>
         <v>2.1704180000000002</v>
       </c>
@@ -1681,6 +1681,10 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
+      <c r="K7" s="21">
+        <f>SUM(K4,K5)</f>
+        <v>19787.762210839999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1688,7 +1692,7 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="34"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1"/>
       <c r="F8" s="17"/>
       <c r="G8" s="20">
@@ -1703,7 +1707,7 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
       <c r="G9" s="20">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="34"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="17"/>
       <c r="G10" s="20">
@@ -1733,7 +1737,7 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="34"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="17"/>
       <c r="G11" s="20">
@@ -1748,7 +1752,7 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="34"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="17"/>
       <c r="G12" s="20">
@@ -1763,7 +1767,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="17"/>
       <c r="G13" s="20">
@@ -1900,52 +1904,52 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="36">
+      <c r="B3" s="25">
         <v>43516</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -1961,47 +1965,47 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="41"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="42"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="41"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="42"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="42"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="41"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="41"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="42"/>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/投资记录和模拟投资.xlsx
+++ b/投资记录和模拟投资.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7996B-615B-4214-9A72-9BCCCC8955B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E276100-F5C3-4615-BB91-E7DD89FAA4EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票投资原则" sheetId="2" r:id="rId1"/>
     <sheet name="股票投资记录-民生银行" sheetId="1" r:id="rId2"/>
     <sheet name="数字货币投资" sheetId="3" r:id="rId3"/>
     <sheet name="数字货币投资原则" sheetId="4" r:id="rId4"/>
+    <sheet name="股票分析" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>民生银行</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,6 +286,30 @@
 若新闻开始出现报道时：全部抛掉
 涨至5倍时抛掉80%，抛掉的80%半年内不能再进行购买
 20%看具体情况长期持有或适时抛掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高ROE的公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行 保险 证券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技概念</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1471,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D7A42-A75E-4DC7-BA35-84D0E3FE7A81}">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2046,4 +2071,51 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A563E-6B4E-442D-B664-7F703380BB2C}">
+  <dimension ref="A3:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>